--- a/Assets/Resources/AudianceProfixs/ProfixContentList.xlsx
+++ b/Assets/Resources/AudianceProfixs/ProfixContentList.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>疯狂的</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>addWaitTime</t>
+  </si>
+  <si>
+    <t>耐心的</t>
+  </si>
+  <si>
+    <t>观众会等待更久</t>
   </si>
 </sst>
 </file>
@@ -466,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -479,9 +491,10 @@
     <col min="6" max="6" width="14.1640625" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -506,8 +519,11 @@
       <c r="H1" t="s">
         <v>12</v>
       </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -532,8 +548,11 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -558,8 +577,11 @@
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -583,6 +605,38 @@
       </c>
       <c r="H4">
         <v>0</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/AudianceProfixs/ProfixContentList.xlsx
+++ b/Assets/Resources/AudianceProfixs/ProfixContentList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JianingXU/GitHub/CSCI529/Assets/Resources/AudianceProfixs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\master\CSCI529\Assets\Resources\AudianceProfixs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D3BF6D-3B2E-4EA4-B4D4-588E12992B35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14900"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -19,24 +20,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>疯狂的</t>
   </si>
@@ -99,12 +94,15 @@
   </si>
   <si>
     <t>观众会等待更久</t>
+  </si>
+  <si>
+    <t>IsBoss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,24 +475,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -522,8 +522,11 @@
       <c r="I1" t="s">
         <v>17</v>
       </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -551,8 +554,11 @@
       <c r="I2">
         <v>20</v>
       </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -580,8 +586,11 @@
       <c r="I3">
         <v>30</v>
       </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -609,8 +618,11 @@
       <c r="I4">
         <v>20</v>
       </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -637,6 +649,9 @@
       </c>
       <c r="I5">
         <v>10</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/AudianceProfixs/ProfixContentList.xlsx
+++ b/Assets/Resources/AudianceProfixs/ProfixContentList.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\master\CSCI529\Assets\Resources\AudianceProfixs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D3BF6D-3B2E-4EA4-B4D4-588E12992B35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F48BF2-30DC-49C7-8CB3-C54DD1B9EEC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
+    <sheet name="Enums" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="61">
   <si>
     <t>疯狂的</t>
   </si>
@@ -97,13 +98,130 @@
   </si>
   <si>
     <t>IsBoss</t>
+  </si>
+  <si>
+    <t>勤奋的</t>
+  </si>
+  <si>
+    <t>怕寂寞的</t>
+  </si>
+  <si>
+    <t>固执的</t>
+  </si>
+  <si>
+    <t>顽皮的</t>
+  </si>
+  <si>
+    <t>勇敢的</t>
+  </si>
+  <si>
+    <t>大胆的</t>
+  </si>
+  <si>
+    <t>坦率地</t>
+  </si>
+  <si>
+    <t>淘气的</t>
+  </si>
+  <si>
+    <t>乐天的</t>
+  </si>
+  <si>
+    <t>有限的</t>
+  </si>
+  <si>
+    <t>内敛的</t>
+  </si>
+  <si>
+    <t>慢吞吞的</t>
+  </si>
+  <si>
+    <t>害羞的</t>
+  </si>
+  <si>
+    <t>马虎的</t>
+  </si>
+  <si>
+    <t>冷静的</t>
+  </si>
+  <si>
+    <t>温和的</t>
+  </si>
+  <si>
+    <t>温顺的</t>
+  </si>
+  <si>
+    <t>慎重的</t>
+  </si>
+  <si>
+    <t>浮躁的</t>
+  </si>
+  <si>
+    <t>自大的</t>
+  </si>
+  <si>
+    <t>胆小的</t>
+  </si>
+  <si>
+    <t>急躁的</t>
+  </si>
+  <si>
+    <t>爽朗的</t>
+  </si>
+  <si>
+    <t>认真的</t>
+  </si>
+  <si>
+    <t>天真的</t>
+  </si>
+  <si>
+    <t>Like</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>Koucai</t>
+  </si>
+  <si>
+    <t>Caiyi</t>
+  </si>
+  <si>
+    <t>Jishu</t>
+  </si>
+  <si>
+    <t>Kangya</t>
+  </si>
+  <si>
+    <t>Waiguan</t>
+  </si>
+  <si>
+    <t>caiyi</t>
+  </si>
+  <si>
+    <t>jishu</t>
+  </si>
+  <si>
+    <t>kangya</t>
+  </si>
+  <si>
+    <t>koucai</t>
+  </si>
+  <si>
+    <t>waiguan</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>DisLike</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +252,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -157,9 +282,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -476,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,12 +615,11 @@
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -520,13 +645,22 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -551,14 +685,23 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2">
         <v>20</v>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -583,14 +726,23 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>30</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -615,14 +767,23 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4">
         <v>20</v>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -638,20 +799,1023 @@
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14">
+        <v>30</v>
+      </c>
+      <c r="M14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15">
+        <v>30</v>
+      </c>
+      <c r="M15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16">
+        <v>30</v>
+      </c>
+      <c r="M16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
+      </c>
+      <c r="M17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <v>30</v>
+      </c>
+      <c r="M18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>30</v>
+      </c>
+      <c r="M19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22">
+        <v>30</v>
+      </c>
+      <c r="M22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23">
+        <v>30</v>
+      </c>
+      <c r="M23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24">
+        <v>30</v>
+      </c>
+      <c r="M24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25">
+        <v>30</v>
+      </c>
+      <c r="M25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+      <c r="M26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27">
+        <v>30</v>
+      </c>
+      <c r="M27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28">
+        <v>30</v>
+      </c>
+      <c r="M28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29">
+        <v>30</v>
+      </c>
+      <c r="M29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="M30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J31" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:L30">
+    <sortCondition ref="K6:K30"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF11F9A-53BA-4785-9D59-4A60B3941110}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/AudianceProfixs/ProfixContentList.xlsx
+++ b/Assets/Resources/AudianceProfixs/ProfixContentList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\master\CSCI529\Assets\Resources\AudianceProfixs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F48BF2-30DC-49C7-8CB3-C54DD1B9EEC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E31683-A9D4-4D0F-A149-6580FD12957E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -605,7 +605,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,8 @@
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -695,7 +696,7 @@
         <v>16</v>
       </c>
       <c r="L2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
         <v>59</v>
@@ -736,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
         <v>59</v>
@@ -777,7 +778,7 @@
         <v>16</v>
       </c>
       <c r="L4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
         <v>59</v>
@@ -799,6 +800,9 @@
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -815,7 +819,7 @@
         <v>16</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
         <v>59</v>
@@ -853,7 +857,7 @@
         <v>16</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s">
         <v>59</v>
@@ -891,7 +895,7 @@
         <v>16</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M7" t="s">
         <v>59</v>
@@ -929,7 +933,7 @@
         <v>16</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M8" t="s">
         <v>59</v>
@@ -967,7 +971,7 @@
         <v>16</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
         <v>59</v>
@@ -1005,7 +1009,7 @@
         <v>16</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s">
         <v>59</v>
@@ -1043,7 +1047,7 @@
         <v>16</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M11" t="s">
         <v>59</v>
@@ -1081,7 +1085,7 @@
         <v>16</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M12" t="s">
         <v>59</v>
@@ -1119,7 +1123,7 @@
         <v>16</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M13" t="s">
         <v>59</v>
@@ -1157,7 +1161,7 @@
         <v>16</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M14" t="s">
         <v>59</v>
@@ -1195,7 +1199,7 @@
         <v>16</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M15" t="s">
         <v>59</v>
@@ -1233,7 +1237,7 @@
         <v>16</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M16" t="s">
         <v>59</v>
@@ -1271,7 +1275,7 @@
         <v>16</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M17" t="s">
         <v>59</v>
@@ -1309,7 +1313,7 @@
         <v>16</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M18" t="s">
         <v>59</v>
@@ -1347,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M19" t="s">
         <v>59</v>
@@ -1385,7 +1389,7 @@
         <v>16</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M20" t="s">
         <v>59</v>
@@ -1423,7 +1427,7 @@
         <v>16</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M21" t="s">
         <v>59</v>
@@ -1461,7 +1465,7 @@
         <v>16</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M22" t="s">
         <v>59</v>
@@ -1499,7 +1503,7 @@
         <v>16</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M23" t="s">
         <v>59</v>
@@ -1537,7 +1541,7 @@
         <v>16</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M24" t="s">
         <v>59</v>
@@ -1575,7 +1579,7 @@
         <v>16</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M25" t="s">
         <v>59</v>
@@ -1613,7 +1617,7 @@
         <v>16</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M26" t="s">
         <v>59</v>
@@ -1651,7 +1655,7 @@
         <v>16</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M27" t="s">
         <v>59</v>
@@ -1689,7 +1693,7 @@
         <v>16</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M28" t="s">
         <v>59</v>
@@ -1727,7 +1731,7 @@
         <v>16</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M29" t="s">
         <v>59</v>
@@ -1765,7 +1769,7 @@
         <v>16</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M30" t="s">
         <v>59</v>

--- a/Assets/Resources/AudianceProfixs/ProfixContentList.xlsx
+++ b/Assets/Resources/AudianceProfixs/ProfixContentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\master\CSCI529\Assets\Resources\AudianceProfixs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E31683-A9D4-4D0F-A149-6580FD12957E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398CCDD8-3EA6-479F-8BF6-D24E96078743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="58">
   <si>
     <t>疯狂的</t>
   </si>
@@ -52,12 +52,6 @@
     <t>观众会额外多一个维度的需求</t>
   </si>
   <si>
-    <t>addRequest</t>
-  </si>
-  <si>
-    <t>extraRequest</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
   </si>
   <si>
     <t>Probability</t>
-  </si>
-  <si>
-    <t>addWaitTime</t>
   </si>
   <si>
     <t>耐心的</t>
@@ -604,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,43 +613,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -669,16 +660,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -687,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L2">
         <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -710,16 +701,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -728,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L3">
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -751,16 +742,16 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -769,36 +760,36 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -810,33 +801,33 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L5">
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -848,33 +839,33 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L6">
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -886,33 +877,33 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L7">
         <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -924,33 +915,33 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L8">
         <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -962,33 +953,33 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L9">
         <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1000,33 +991,33 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L10">
         <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1038,33 +1029,33 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L11">
         <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1076,33 +1067,33 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L12">
         <v>50</v>
       </c>
       <c r="M12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1114,33 +1105,33 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L13">
         <v>50</v>
       </c>
       <c r="M13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1152,33 +1143,33 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L14">
         <v>50</v>
       </c>
       <c r="M14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1190,33 +1181,33 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L15">
         <v>50</v>
       </c>
       <c r="M15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1228,33 +1219,33 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L16">
         <v>50</v>
       </c>
       <c r="M16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1266,33 +1257,33 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L17">
         <v>50</v>
       </c>
       <c r="M17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1304,33 +1295,33 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L18">
         <v>50</v>
       </c>
       <c r="M18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1342,33 +1333,33 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L19">
         <v>50</v>
       </c>
       <c r="M19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1380,33 +1371,33 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L20">
         <v>50</v>
       </c>
       <c r="M20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1418,33 +1409,33 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L21">
         <v>50</v>
       </c>
       <c r="M21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1456,33 +1447,33 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L22">
         <v>50</v>
       </c>
       <c r="M22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1494,33 +1485,33 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L23">
         <v>50</v>
       </c>
       <c r="M23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1532,33 +1523,33 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L24">
         <v>50</v>
       </c>
       <c r="M24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1570,33 +1561,33 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L25">
         <v>50</v>
       </c>
       <c r="M25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1608,33 +1599,33 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L26">
         <v>50</v>
       </c>
       <c r="M26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1646,33 +1637,33 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L27">
         <v>50</v>
       </c>
       <c r="M27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1684,33 +1675,33 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L28">
         <v>50</v>
       </c>
       <c r="M28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1722,33 +1713,33 @@
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L29">
         <v>50</v>
       </c>
       <c r="M29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1760,19 +1751,19 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L30">
         <v>50</v>
       </c>
       <c r="M30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1799,27 +1790,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
